--- a/biology/Zoologie/Felis/Felis.xlsx
+++ b/biology/Zoologie/Felis/Felis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Felis est un genre de félins (la famille des félidés) de la sous-famille des félinés.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste des espèces selon ITIS      (septembre 2016)[1] et Mammal Species of the World (version 3, 2005)  (septembre 2016)[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des espèces selon ITIS      (septembre 2016) et Mammal Species of the World (version 3, 2005)  (septembre 2016):
 Felis bieti Milne-Edwards, 1892 – Chat de Biet (qui peut être considéré comme une sous-espèce de Felis silvestris).
 Felis catus Linnaeus, 1758 – Chat domestique (qui peut être considéré comme une sous-espèce de Felis silvestris).
 Felis chaus Schreber, 1777 – Chaus
@@ -548,12 +562,12 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2006, des travaux effectués sur les chromosomes sexuels et l’ADN mitochondrial de toutes les espèces de félins, conjugués à des recherches paléontologiques, ont révélé que la lignée du genre Felis aurait divergé de celle des genres Otocolobus et Prionailurus il y  a environ 6,2 millions d’années et que l'ancêtre commun du genre Felis vivait il y a 3,4 millions d’années, au Pliocène, dans les déserts et les forêts denses du bassin méditerranéen[3].
-Phylogénie des genres de félidés, d'après Obrien et al., 2006 [4]:
-Phylogénie interne
-Arbre phylogénétique du genre Felis[5]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, des travaux effectués sur les chromosomes sexuels et l’ADN mitochondrial de toutes les espèces de félins, conjugués à des recherches paléontologiques, ont révélé que la lignée du genre Felis aurait divergé de celle des genres Otocolobus et Prionailurus il y  a environ 6,2 millions d’années et que l'ancêtre commun du genre Felis vivait il y a 3,4 millions d’années, au Pliocène, dans les déserts et les forêts denses du bassin méditerranéen.
+Phylogénie des genres de félidés, d'après Obrien et al., 2006 :
 </t>
         </is>
       </c>
@@ -579,10 +593,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie interne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique du genre Felis:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Felis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Felis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces n'appartenant plus à ce genre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jadis, avaient été placées dans ce genre les espèces suivantes :
 Caracal caracal — lynx du désert
